--- a/东24届学生考生号.xlsx
+++ b/东24届学生考生号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHH\Desktop\E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FFCC9-DE88-4EAE-8B93-DC07EA3E55DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63E4048-99F3-467B-A915-DCD61DBFBD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="2035">
   <si>
     <t>姓名</t>
   </si>
@@ -6127,6 +6127,10 @@
   </si>
   <si>
     <t>1011211020</t>
+  </si>
+  <si>
+    <t>智学网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6498,26 +6502,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1019"/>
+  <dimension ref="A1:C1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A984" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G995" sqref="G995"/>
+    <sheetView tabSelected="1" topLeftCell="A992" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>208</v>
       </c>
@@ -6525,7 +6533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -6533,7 +6541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -6549,7 +6557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -6557,7 +6565,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>600</v>
       </c>
@@ -6565,7 +6573,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>884</v>
       </c>
@@ -6573,7 +6581,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>134</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>166</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -13165,7 +13173,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="833" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A833" s="2" t="s">
         <v>1119</v>
       </c>
@@ -13173,7 +13181,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="834" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
         <v>1847</v>
       </c>
@@ -13181,7 +13189,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A835" s="2" t="s">
         <v>1647</v>
       </c>
@@ -13189,7 +13197,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="836" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A836" s="2" t="s">
         <v>1841</v>
       </c>
@@ -13197,7 +13205,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A837" s="2" t="s">
         <v>1831</v>
       </c>
@@ -13205,7 +13213,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A838" s="2" t="s">
         <v>1827</v>
       </c>
@@ -13213,7 +13221,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A839" s="2" t="s">
         <v>1235</v>
       </c>
@@ -13221,7 +13229,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A840" s="2" t="s">
         <v>1278</v>
       </c>
@@ -13229,7 +13237,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="841" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A841" s="2" t="s">
         <v>1885</v>
       </c>
@@ -13237,7 +13245,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
         <v>1595</v>
       </c>
@@ -13245,15 +13253,18 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
         <v>1749</v>
       </c>
       <c r="B843" s="2" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="844" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C843" s="2">
+        <v>25035456</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
         <v>1350</v>
       </c>
@@ -13261,7 +13272,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="845" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
         <v>1633</v>
       </c>
@@ -13269,7 +13280,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="846" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
         <v>1799</v>
       </c>
@@ -13277,7 +13288,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A847" s="2" t="s">
         <v>1004</v>
       </c>
@@ -13285,7 +13296,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="848" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A848" s="2" t="s">
         <v>1855</v>
       </c>
